--- a/facebook_thread.xlsx
+++ b/facebook_thread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Automation\Commenting-Grind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B18E78-F3B6-432B-AD02-8B2C315D4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2096BA-65EB-46B7-9F76-2B8EA1BA57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>https://www.facebook.com/groups/phdream/posts/762342909225540/?comment_id=762372489222582</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="72">
   <si>
     <t>comment</t>
   </si>
@@ -37,6 +34,213 @@
   </si>
   <si>
     <t>Thread Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ErrorCount</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763319102461254</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763344912458673</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763323652460799</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763190099140821</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763200549139776</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763242072468957</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763196839140147</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763203485806149</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763326802460484</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763255502467614</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763261625800335</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763118095814688/?comment_id=763309092462255</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763349309124900</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763331779126653</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763332915793206</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763333022459862</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763367292456435</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763335669126264</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763317249128106/?comment_id=763340372459127</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763352615791236</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763359042457260</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763337099126121</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763333432459821</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763333382459826</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763294552463709</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763294865797011</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761762529283578</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761893599270471</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=762501929209638</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=762175195908978</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=762175345908963</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=762108105915687</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=763328899126941</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=763328975793600</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761772435949254</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761712342621930</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=762176329242198</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761723559287475</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/761498322643332/?comment_id=761602802632884</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763311812461983/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763311812461983/?comment_id=763328762460288</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763311812461983/?comment_id=763337202459444</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763311812461983/?comment_id=763369132456251</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763311812461983/?comment_id=763349505791547</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763291402464024/?comment_id=763554952437669</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=764071522386012</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=764145132378651</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=764122889047542</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=764058532387311</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=763976359062195</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763967035729794/?comment_id=764060445720453</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763668692426295</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763947539065077</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763934899066341</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763843075742190</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763831325743365</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763951462398018</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763967505729747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763829705743527</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=763815719078259</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/phdream/posts/763281565798341/?comment_id=764038855722612</t>
   </si>
 </sst>
 </file>
@@ -81,9 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,56 +570,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.28515625" customWidth="1"/>
+    <col min="1" max="1" width="92.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0E5F97DE-8038-4E4A-B918-993650FCDCD4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{418B44C6-74F6-4D99-B028-F7E0C835658F}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{857B25A5-091B-41A7-B06C-59D78E3A79C4}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{617436A8-6388-4B40-A8DE-38F3CD9D5E16}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{114C409F-C1A1-405F-9213-BB8B39591852}"/>
+    <hyperlink ref="A26" r:id="rId3" xr:uid="{38D6A23A-7D5F-48DA-939E-6217CDBFD562}"/>
+    <hyperlink ref="A32" r:id="rId4" xr:uid="{A8CA1BBD-0B86-4B25-B562-766B322AB097}"/>
+    <hyperlink ref="A40" r:id="rId5" xr:uid="{07EBA1A9-4540-41E2-AE91-99575DEF3DFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>